--- a/Design/jihwan/table_document.xlsx
+++ b/Design/jihwan/table_document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkdnj\python_class\travel_project\Design\jihwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3807DD0-1B5C-4914-A9CD-5D726ADF9D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74AB0CC-E442-4180-8210-AF58361BE217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="telegram_user_tb" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저 성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,23 +148,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저 프로필 사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유저 카카오 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저의 동행 목적지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>facebook_user_tb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>페이스북 사용유저 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appeal_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 성별 ('남자', '여자')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 프로필 사진 URL ('http://….jpg')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 동행 목적지 (파리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 시작 날짜 ("2019-11-11")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 끝 날짜 ("2019-11-13")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 어필태그 ("#술한잔, #체력왕")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -652,7 +680,7 @@
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -760,7 +788,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -768,10 +796,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
@@ -779,7 +807,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -787,10 +815,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>18</v>
@@ -798,7 +826,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -806,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
@@ -817,7 +845,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -825,10 +853,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
@@ -836,7 +864,64 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -853,10 +938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCB3B79-D19C-4664-A966-3D5F3BD95CBD}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -866,7 +951,7 @@
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -875,7 +960,7 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -888,7 +973,7 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -974,7 +1059,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -982,10 +1067,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
@@ -993,7 +1078,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1001,10 +1086,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>18</v>
@@ -1012,7 +1097,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1020,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
@@ -1031,7 +1116,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -1039,10 +1124,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
@@ -1050,7 +1135,64 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Design/jihwan/table_document.xlsx
+++ b/Design/jihwan/table_document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkdnj\python_class\travel_project\Design\jihwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74AB0CC-E442-4180-8210-AF58361BE217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F20698-FD11-4948-AD94-4F63AB227D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="telegram_user_tb" sheetId="1" r:id="rId1"/>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -837,7 +837,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>18</v>
@@ -933,6 +933,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -940,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCB3B79-D19C-4664-A966-3D5F3BD95CBD}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1108,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>18</v>

--- a/Design/jihwan/table_document.xlsx
+++ b/Design/jihwan/table_document.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkdnj\python_class\travel_project\Design\jihwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F20698-FD11-4948-AD94-4F63AB227D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7358536-E3C0-4300-8BAF-2C384E7CA8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="telegram_user_tb" sheetId="1" r:id="rId1"/>
     <sheet name="facebook_user_tb" sheetId="2" r:id="rId2"/>
+    <sheet name="kakaotalk_user_tb" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="52">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +198,42 @@
   </si>
   <si>
     <t>유저 어필태그 ("#술한잔, #체력왕")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialog_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 현재 대화 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 상태 (기존 사용자, 신규 사용자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 카카오톡 아이디 열람 횟수 (default : 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakaotalk_user_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡 사용유저 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,6 +398,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -680,34 +723,34 @@
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="35.58203125" customWidth="1"/>
+    <col min="7" max="7" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -922,6 +965,63 @@
       <c r="F13" s="6"/>
       <c r="G13" s="4" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -939,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCB3B79-D19C-4664-A966-3D5F3BD95CBD}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -952,34 +1052,34 @@
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="31.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -1194,6 +1294,390 @@
       <c r="F13" s="6"/>
       <c r="G13" s="4" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC637DC-A970-4E34-A06C-B09D5DEDB64C}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.58203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4140625" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Design/jihwan/table_document.xlsx
+++ b/Design/jihwan/table_document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkdnj\python_class\travel_project\Design\jihwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7358536-E3C0-4300-8BAF-2C384E7CA8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B591EEE-AE45-4536-9845-F9C9ECC93EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="2340" windowWidth="14460" windowHeight="7060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="telegram_user_tb" sheetId="1" r:id="rId1"/>

--- a/Design/jihwan/table_document.xlsx
+++ b/Design/jihwan/table_document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkdnj\python_class\travel_project\Design\jihwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B591EEE-AE45-4536-9845-F9C9ECC93EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91233624-E035-484B-9873-733B7F43BE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2340" windowWidth="14460" windowHeight="7060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,14 @@
   </si>
   <si>
     <t>카카오톡 사용유저 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행 목적지의 국가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1024,6 +1032,25 @@
         <v>49</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -1039,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCB3B79-D19C-4664-A966-3D5F3BD95CBD}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1353,6 +1380,25 @@
         <v>49</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -1367,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC637DC-A970-4E34-A06C-B09D5DEDB64C}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1680,6 +1726,25 @@
         <v>49</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
